--- a/biology/Médecine/Davier_(chirurgie_dentaire)/Davier_(chirurgie_dentaire).xlsx
+++ b/biology/Médecine/Davier_(chirurgie_dentaire)/Davier_(chirurgie_dentaire).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un davier est un instrument de chirurgie dentaire destiné à l'extraction dentaire. Il se présente classiquement sous la forme d'une pince destinée à prendre appui au niveau coronaire et, par de petits mouvements de rotation et de traction, permet de sortir la dent de son alvéole. Cette étape est précédée de la syndesmotomie à l'aide d'un syndesmotome, étape qui consiste à couper les fibres gingivales qui maintiennent la dent dans son alvéole. Plus spécifiquement on doit parler d'avulsion dentaire car le davier permet de "luxer" la dent, d'arracher littéralement le ligament alvéolo-dentaire. C'est pourquoi il ne faut pas nécessairement "tirer" sur la dent avec le davier. Il est important de ne pas effectuer de mouvement vestibulaire et lingual au risque de fragiliser voire casser les corticales alvéolaires (cas classique des incisives et canines).
 Le davier doit être placé le plus apicalement possible sur la dent avec d'offrir un maximum de prise avec un risque minimum de casse. Les daviers seront faits de façon que, pour le maxillaire supérieur, la partie active soit dans le prolongement du manche et pour la mandibule cette partie active soit à 90° car on travaille perpendiculairement par rapport à l'arcade.
